--- a/tut05/output/0501CS28.xlsx
+++ b/tut05/output/0501CS28.xlsx
@@ -550,25 +550,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.183673469387756</v>
+        <v>9.18</v>
       </c>
       <c r="C6" t="n">
-        <v>9.045454545454545</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>9.86046511627907</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>9.638297872340425</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>9.425000000000001</v>
+        <v>9.43</v>
       </c>
       <c r="H6" t="n">
-        <v>9.804878048780488</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I6" t="n">
         <v>8.699999999999999</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.183673469387756</v>
+        <v>9.18</v>
       </c>
       <c r="C8" t="n">
-        <v>9.118279569892474</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>9.352941176470589</v>
+        <v>9.35</v>
       </c>
       <c r="E8" t="n">
-        <v>9.426229508196721</v>
+        <v>9.43</v>
       </c>
       <c r="F8" t="n">
-        <v>9.533333333333333</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>9.516981132075472</v>
+        <v>9.52</v>
       </c>
       <c r="H8" t="n">
-        <v>9.555555555555555</v>
+        <v>9.56</v>
       </c>
       <c r="I8" t="n">
-        <v>9.456647398843931</v>
+        <v>9.460000000000001</v>
       </c>
     </row>
   </sheetData>
